--- a/3_Component_Results/EXPORT/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/EXPORT/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Q0</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
   </si>
   <si>
     <t>2022-01-01 00:00:00_diff</t>
@@ -440,13 +443,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,10 +474,13 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>-3.139846050292121</v>
@@ -498,9 +504,9 @@
         <v>-0.9977608205042121</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0.9892071153076785</v>
@@ -521,9 +527,9 @@
         <v>2.142085229787909</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>0.5549355646339933</v>
@@ -540,10 +546,22 @@
       <c r="F4">
         <v>1.15287811448023</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="G4">
+        <v>0.3837439847994517</v>
+      </c>
+      <c r="H4">
+        <v>-1.436992267669069</v>
+      </c>
+      <c r="I4">
+        <v>0.3765140280931547</v>
+      </c>
+      <c r="J4">
+        <v>-0.2577465226711695</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0.2120110968551217</v>
@@ -570,9 +588,9 @@
         <v>-0.8126820873051628</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>-0.588051496936302</v>
@@ -596,9 +614,9 @@
         <v>-1.024693184160284</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>-0.416160105116802</v>
@@ -619,9 +637,9 @@
         <v>-0.4366416872239824</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>1.39014305504422</v>
@@ -638,10 +656,19 @@
       <c r="F8">
         <v>-0.02048158210718048</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="G8">
+        <v>1.061234703579416</v>
+      </c>
+      <c r="H8">
+        <v>0.6797930702803257</v>
+      </c>
+      <c r="I8">
+        <v>0.3873308289134342</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>-0.7691341296807788</v>
@@ -665,9 +692,9 @@
         <v>-1.002812226130785</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>-1.820736252468521</v>
@@ -688,9 +715,9 @@
         <v>-0.2336780964500065</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>1.813506295762224</v>
@@ -708,9 +735,9 @@
         <v>1.587058156018515</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>-0.6342605507643242</v>
@@ -725,9 +752,9 @@
         <v>-0.2264481397437094</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>1.081716285686596</v>
@@ -739,9 +766,9 @@
         <v>0.4078124110206147</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14">
         <v>-0.3814416332990902</v>
@@ -750,17 +777,17 @@
         <v>-0.6739038746659816</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>-0.2924622413668914</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/EXPORT/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/EXPORT/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Q0</t>
   </si>
@@ -41,6 +41,120 @@
   </si>
   <si>
     <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
+  </si>
+  <si>
+    <t>2007-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2010-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2010-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-10-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2022-01-01 00:00:00_diff</t>
@@ -443,13 +557,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,317 +591,1663 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2">
+        <v>0.6260204014185438</v>
+      </c>
+      <c r="C2">
+        <v>3.269113703252032</v>
+      </c>
+      <c r="D2">
+        <v>3.427278199462635</v>
+      </c>
+      <c r="E2">
+        <v>11.11468264850727</v>
+      </c>
+      <c r="F2">
+        <v>12.73337812664747</v>
+      </c>
+      <c r="G2">
+        <v>3.873035857217758</v>
+      </c>
+      <c r="H2">
+        <v>-0.323063796923293</v>
+      </c>
+      <c r="I2">
+        <v>0.7785769238476101</v>
+      </c>
+      <c r="J2">
+        <v>0.4449614463882061</v>
+      </c>
+      <c r="K2">
+        <v>-4.858590543813506</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>2.801257798044091</v>
+      </c>
+      <c r="C3">
+        <v>10.48866224708873</v>
+      </c>
+      <c r="D3">
+        <v>12.10735772522892</v>
+      </c>
+      <c r="E3">
+        <v>3.247015455799215</v>
+      </c>
+      <c r="F3">
+        <v>-0.9490841983418368</v>
+      </c>
+      <c r="G3">
+        <v>0.1525565224290664</v>
+      </c>
+      <c r="H3">
+        <v>-0.1810589550303376</v>
+      </c>
+      <c r="I3">
+        <v>-5.484610945232049</v>
+      </c>
+      <c r="J3">
+        <v>0.1003315235034132</v>
+      </c>
+      <c r="K3">
+        <v>0.5871892290183212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>9.306099927184832</v>
+      </c>
+      <c r="C4">
+        <v>0.4457576577551237</v>
+      </c>
+      <c r="D4">
+        <v>-3.750341996385928</v>
+      </c>
+      <c r="E4">
+        <v>-2.648701275615025</v>
+      </c>
+      <c r="F4">
+        <v>-2.982316753074429</v>
+      </c>
+      <c r="G4">
+        <v>-8.28586874327614</v>
+      </c>
+      <c r="H4">
+        <v>-2.700926274540678</v>
+      </c>
+      <c r="I4">
+        <v>-2.21406856902577</v>
+      </c>
+      <c r="J4">
+        <v>-2.689582674310231</v>
+      </c>
+      <c r="K4">
+        <v>-3.129368712557039</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>-13.05644192357076</v>
+      </c>
+      <c r="C5">
+        <v>-11.95480120279986</v>
+      </c>
+      <c r="D5">
+        <v>-12.28841668025926</v>
+      </c>
+      <c r="E5">
+        <v>-17.59196867046097</v>
+      </c>
+      <c r="F5">
+        <v>-12.00702620172551</v>
+      </c>
+      <c r="G5">
+        <v>-11.5201684962106</v>
+      </c>
+      <c r="H5">
+        <v>-11.99568260149506</v>
+      </c>
+      <c r="I5">
+        <v>-12.43546863974187</v>
+      </c>
+      <c r="J5">
+        <v>-12.21048456176227</v>
+      </c>
+      <c r="K5">
+        <v>-8.192740291612907</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>0.7680252433114991</v>
+      </c>
+      <c r="C6">
+        <v>-4.535526746890213</v>
+      </c>
+      <c r="D6">
+        <v>1.04941572184525</v>
+      </c>
+      <c r="E6">
+        <v>1.536273427360158</v>
+      </c>
+      <c r="F6">
+        <v>1.060759322075697</v>
+      </c>
+      <c r="G6">
+        <v>0.6209732838288891</v>
+      </c>
+      <c r="H6">
+        <v>0.8459573618084879</v>
+      </c>
+      <c r="I6">
+        <v>4.863701631957853</v>
+      </c>
+      <c r="J6">
+        <v>1.65021882048356</v>
+      </c>
+      <c r="K6">
+        <v>0.1006369833736191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>0.2813904785337509</v>
+      </c>
+      <c r="C7">
+        <v>0.7682481840486588</v>
+      </c>
+      <c r="D7">
+        <v>0.2927340787641977</v>
+      </c>
+      <c r="E7">
+        <v>-0.1470519594826101</v>
+      </c>
+      <c r="F7">
+        <v>0.07793211849698878</v>
+      </c>
+      <c r="G7">
+        <v>4.095676388646353</v>
+      </c>
+      <c r="H7">
+        <v>0.8821935771720608</v>
+      </c>
+      <c r="I7">
+        <v>-0.66738825993788</v>
+      </c>
+      <c r="J7">
+        <v>1.161529403603552</v>
+      </c>
+      <c r="K7">
+        <v>5.027363024459689</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>0.01134360023044678</v>
+      </c>
+      <c r="C8">
+        <v>-0.4284424380163609</v>
+      </c>
+      <c r="D8">
+        <v>-0.2034583600367621</v>
+      </c>
+      <c r="E8">
+        <v>3.814285910112603</v>
+      </c>
+      <c r="F8">
+        <v>0.6008030986383099</v>
+      </c>
+      <c r="G8">
+        <v>-0.9487787384716309</v>
+      </c>
+      <c r="H8">
+        <v>0.8801389250698008</v>
+      </c>
+      <c r="I8">
+        <v>4.745972545925937</v>
+      </c>
+      <c r="J8">
+        <v>4.130551327140581</v>
+      </c>
+      <c r="K8">
+        <v>-0.1020210191098689</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>-0.2148019602672089</v>
+      </c>
+      <c r="C9">
+        <v>3.802942309882156</v>
+      </c>
+      <c r="D9">
+        <v>0.5894594984078632</v>
+      </c>
+      <c r="E9">
+        <v>-0.9601223387020776</v>
+      </c>
+      <c r="F9">
+        <v>0.8687953248393541</v>
+      </c>
+      <c r="G9">
+        <v>4.734628945695491</v>
+      </c>
+      <c r="H9">
+        <v>4.119207726910134</v>
+      </c>
+      <c r="I9">
+        <v>-0.1133646193403157</v>
+      </c>
+      <c r="J9">
+        <v>2.238148234152917</v>
+      </c>
+      <c r="K9">
+        <v>-0.1477815993096518</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>0.804261458675072</v>
+      </c>
+      <c r="C10">
+        <v>-0.7453203784348688</v>
+      </c>
+      <c r="D10">
+        <v>1.083597285106563</v>
+      </c>
+      <c r="E10">
+        <v>4.9494309059627</v>
+      </c>
+      <c r="F10">
+        <v>4.334009687177343</v>
+      </c>
+      <c r="G10">
+        <v>0.1014373409268932</v>
+      </c>
+      <c r="H10">
+        <v>2.452950194420126</v>
+      </c>
+      <c r="I10">
+        <v>0.06702036095755703</v>
+      </c>
+      <c r="J10">
+        <v>2.365724277491765</v>
+      </c>
+      <c r="K10">
+        <v>1.376678022152262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>0.2793358264314909</v>
+      </c>
+      <c r="C11">
+        <v>4.145169447287628</v>
+      </c>
+      <c r="D11">
+        <v>3.529748228502271</v>
+      </c>
+      <c r="E11">
+        <v>-0.7028241177481789</v>
+      </c>
+      <c r="F11">
+        <v>1.648688735745054</v>
+      </c>
+      <c r="G11">
+        <v>-0.737241097717515</v>
+      </c>
+      <c r="H11">
+        <v>1.561462818816693</v>
+      </c>
+      <c r="I11">
+        <v>0.5724165634771901</v>
+      </c>
+      <c r="J11">
+        <v>-0.220669009800958</v>
+      </c>
+      <c r="K11">
+        <v>0.7284446604436279</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>3.25041240207078</v>
+      </c>
+      <c r="C12">
+        <v>-0.9821599441796698</v>
+      </c>
+      <c r="D12">
+        <v>1.369352909313563</v>
+      </c>
+      <c r="E12">
+        <v>-1.016576924149006</v>
+      </c>
+      <c r="F12">
+        <v>1.282126992385202</v>
+      </c>
+      <c r="G12">
+        <v>0.2930807370456991</v>
+      </c>
+      <c r="H12">
+        <v>-0.500004836232449</v>
+      </c>
+      <c r="I12">
+        <v>0.449108834012137</v>
+      </c>
+      <c r="J12">
+        <v>0.6431813506550559</v>
+      </c>
+      <c r="K12">
+        <v>-0.348827770563986</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>-1.881059492757217</v>
+      </c>
+      <c r="C13">
+        <v>-4.266989326219786</v>
+      </c>
+      <c r="D13">
+        <v>-1.968285409685578</v>
+      </c>
+      <c r="E13">
+        <v>-2.957331665025081</v>
+      </c>
+      <c r="F13">
+        <v>-3.750417238303229</v>
+      </c>
+      <c r="G13">
+        <v>-2.801303568058643</v>
+      </c>
+      <c r="H13">
+        <v>-2.607231051415724</v>
+      </c>
+      <c r="I13">
+        <v>-3.599240172634766</v>
+      </c>
+      <c r="J13">
+        <v>-2.020921084902313</v>
+      </c>
+      <c r="K13">
+        <v>-1.161311817552161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>-0.08722591692836087</v>
+      </c>
+      <c r="C14">
+        <v>-1.076272172267864</v>
+      </c>
+      <c r="D14">
+        <v>-1.869357745546012</v>
+      </c>
+      <c r="E14">
+        <v>-0.9202440753014258</v>
+      </c>
+      <c r="F14">
+        <v>-0.7261715586585069</v>
+      </c>
+      <c r="G14">
+        <v>-1.718180679877549</v>
+      </c>
+      <c r="H14">
+        <v>-0.1398615921450954</v>
+      </c>
+      <c r="I14">
+        <v>0.7197476752050562</v>
+      </c>
+      <c r="J14">
+        <v>-0.8998209001863131</v>
+      </c>
+      <c r="K14">
+        <v>-1.166974330348282</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>-1.782131828617651</v>
+      </c>
+      <c r="C15">
+        <v>-0.8330181583730649</v>
+      </c>
+      <c r="D15">
+        <v>-0.638945641730146</v>
+      </c>
+      <c r="E15">
+        <v>-1.630954762949188</v>
+      </c>
+      <c r="F15">
+        <v>-0.05263567521673451</v>
+      </c>
+      <c r="G15">
+        <v>0.8069735921334171</v>
+      </c>
+      <c r="H15">
+        <v>-0.8125949832579522</v>
+      </c>
+      <c r="I15">
+        <v>-1.079748413419921</v>
+      </c>
+      <c r="J15">
+        <v>0.5667632300900323</v>
+      </c>
+      <c r="K15">
+        <v>-1.51813091655518</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>1.143186186887505</v>
+      </c>
+      <c r="C16">
+        <v>0.151177065668463</v>
+      </c>
+      <c r="D16">
+        <v>1.729496153400916</v>
+      </c>
+      <c r="E16">
+        <v>2.589105420751068</v>
+      </c>
+      <c r="F16">
+        <v>0.9695368453596986</v>
+      </c>
+      <c r="G16">
+        <v>0.70238341519773</v>
+      </c>
+      <c r="H16">
+        <v>2.348895058707683</v>
+      </c>
+      <c r="I16">
+        <v>0.2640009120624711</v>
+      </c>
+      <c r="J16">
+        <v>0.6570799836550241</v>
+      </c>
+      <c r="K16">
+        <v>0.902482457127064</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>0.5863099665134115</v>
+      </c>
+      <c r="C17">
+        <v>1.445919233863563</v>
+      </c>
+      <c r="D17">
+        <v>-0.1736493415278062</v>
+      </c>
+      <c r="E17">
+        <v>-0.4408027716897749</v>
+      </c>
+      <c r="F17">
+        <v>1.205708871820178</v>
+      </c>
+      <c r="G17">
+        <v>-0.8791852748250337</v>
+      </c>
+      <c r="H17">
+        <v>-0.4861062032324808</v>
+      </c>
+      <c r="I17">
+        <v>-0.2407037297604409</v>
+      </c>
+      <c r="J17">
+        <v>-0.8561930079172557</v>
+      </c>
+      <c r="K17">
+        <v>-1.933167486222601</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>-0.7599593080412177</v>
+      </c>
+      <c r="C18">
+        <v>-1.027112738203186</v>
+      </c>
+      <c r="D18">
+        <v>0.6193989053067668</v>
+      </c>
+      <c r="E18">
+        <v>-1.465495241338445</v>
+      </c>
+      <c r="F18">
+        <v>-1.072416169745892</v>
+      </c>
+      <c r="G18">
+        <v>-0.8270136962738524</v>
+      </c>
+      <c r="H18">
+        <v>-1.442502974430667</v>
+      </c>
+      <c r="I18">
+        <v>-2.519477452736012</v>
+      </c>
+      <c r="J18">
+        <v>1.258187789322122</v>
+      </c>
+      <c r="K18">
+        <v>-0.4640648662544038</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>1.379358213347984</v>
+      </c>
+      <c r="C19">
+        <v>-0.7055359332972275</v>
+      </c>
+      <c r="D19">
+        <v>-0.3124568617046746</v>
+      </c>
+      <c r="E19">
+        <v>-0.06705438823263465</v>
+      </c>
+      <c r="F19">
+        <v>-0.6825436663894495</v>
+      </c>
+      <c r="G19">
+        <v>-1.759518144694795</v>
+      </c>
+      <c r="H19">
+        <v>2.01814709736334</v>
+      </c>
+      <c r="I19">
+        <v>0.2958944417868139</v>
+      </c>
+      <c r="J19">
+        <v>1.877460723290164</v>
+      </c>
+      <c r="K19">
+        <v>0.3248694574417641</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>-1.691815075052659</v>
+      </c>
+      <c r="C20">
+        <v>-1.446412601580619</v>
+      </c>
+      <c r="D20">
+        <v>-2.061901879737434</v>
+      </c>
+      <c r="E20">
+        <v>-3.138876358042779</v>
+      </c>
+      <c r="F20">
+        <v>0.6387888840153551</v>
+      </c>
+      <c r="G20">
+        <v>-1.083463771561171</v>
+      </c>
+      <c r="H20">
+        <v>0.4981025099421799</v>
+      </c>
+      <c r="I20">
+        <v>-1.05448875590622</v>
+      </c>
+      <c r="J20">
+        <v>-1.40189749005782</v>
+      </c>
+      <c r="K20">
+        <v>0.944870728145389</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>-0.370086804684775</v>
+      </c>
+      <c r="C21">
+        <v>-1.44706128299012</v>
+      </c>
+      <c r="D21">
+        <v>2.330603959068014</v>
+      </c>
+      <c r="E21">
+        <v>0.6083513034914885</v>
+      </c>
+      <c r="F21">
+        <v>2.189917584994839</v>
+      </c>
+      <c r="G21">
+        <v>0.6373263191464387</v>
+      </c>
+      <c r="H21">
+        <v>0.289917584994839</v>
+      </c>
+      <c r="I21">
+        <v>2.636685803198048</v>
+      </c>
+      <c r="J21">
+        <v>0.247965721067231</v>
+      </c>
+      <c r="K21">
+        <v>1.523453707252955</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>2.700690763752789</v>
+      </c>
+      <c r="C22">
+        <v>0.9784381081762634</v>
+      </c>
+      <c r="D22">
+        <v>2.560004389679614</v>
+      </c>
+      <c r="E22">
+        <v>1.007413123831214</v>
+      </c>
+      <c r="F22">
+        <v>0.6600043896796139</v>
+      </c>
+      <c r="G22">
+        <v>3.006772607882823</v>
+      </c>
+      <c r="H22">
+        <v>0.618052525752006</v>
+      </c>
+      <c r="I22">
+        <v>1.89354051193773</v>
+      </c>
+      <c r="J22">
+        <v>4.760004389679614</v>
+      </c>
+      <c r="K22">
+        <v>21.99630824489196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>2.055412586481609</v>
+      </c>
+      <c r="C23">
+        <v>3.636978867984959</v>
+      </c>
+      <c r="D23">
+        <v>2.084387602136559</v>
+      </c>
+      <c r="E23">
+        <v>1.736978867984959</v>
+      </c>
+      <c r="F23">
+        <v>4.083747086188168</v>
+      </c>
+      <c r="G23">
+        <v>1.695027004057351</v>
+      </c>
+      <c r="H23">
+        <v>2.970514990243075</v>
+      </c>
+      <c r="I23">
+        <v>5.836978867984959</v>
+      </c>
+      <c r="J23">
+        <v>23.07328272319731</v>
+      </c>
+      <c r="K23">
+        <v>-9.68852711626967</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>-0.1406863740731751</v>
+      </c>
+      <c r="C24">
+        <v>-1.693277639921575</v>
+      </c>
+      <c r="D24">
+        <v>-2.040686374073175</v>
+      </c>
+      <c r="E24">
+        <v>0.3060818441300339</v>
+      </c>
+      <c r="F24">
+        <v>-2.082638238000783</v>
+      </c>
+      <c r="G24">
+        <v>-0.8071502518150595</v>
+      </c>
+      <c r="H24">
+        <v>2.059313625926825</v>
+      </c>
+      <c r="I24">
+        <v>19.29561748113917</v>
+      </c>
+      <c r="J24">
+        <v>-13.4661923583278</v>
+      </c>
+      <c r="K24">
+        <v>-3.853874766988468</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>0.0289750156549502</v>
+      </c>
+      <c r="C25">
+        <v>-0.3184337184966495</v>
+      </c>
+      <c r="D25">
+        <v>2.02833449970656</v>
+      </c>
+      <c r="E25">
+        <v>-0.3603855824242574</v>
+      </c>
+      <c r="F25">
+        <v>0.9151024037614661</v>
+      </c>
+      <c r="G25">
+        <v>3.781566281503351</v>
+      </c>
+      <c r="H25">
+        <v>21.0178701367157</v>
+      </c>
+      <c r="I25">
+        <v>-11.74393970275128</v>
+      </c>
+      <c r="J25">
+        <v>-2.131622111411942</v>
+      </c>
+      <c r="K25">
+        <v>-1.125342721894526</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>-1.9</v>
+      </c>
+      <c r="C26">
+        <v>0.446768218203209</v>
+      </c>
+      <c r="D26">
+        <v>-1.941951863927608</v>
+      </c>
+      <c r="E26">
+        <v>-0.6664638777418844</v>
+      </c>
+      <c r="F26">
+        <v>2.2</v>
+      </c>
+      <c r="G26">
+        <v>19.43630385521235</v>
+      </c>
+      <c r="H26">
+        <v>-13.32550598425463</v>
+      </c>
+      <c r="I26">
+        <v>-3.713188392915293</v>
+      </c>
+      <c r="J26">
+        <v>-2.706909003397877</v>
+      </c>
+      <c r="K26">
+        <v>-1.987285196410733</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>1.999359484051609</v>
+      </c>
+      <c r="C27">
+        <v>-0.3893605980792076</v>
+      </c>
+      <c r="D27">
+        <v>0.8861273881065159</v>
+      </c>
+      <c r="E27">
+        <v>3.7525912658484</v>
+      </c>
+      <c r="F27">
+        <v>20.98889512106075</v>
+      </c>
+      <c r="G27">
+        <v>-11.77291471840623</v>
+      </c>
+      <c r="H27">
+        <v>-2.160597127066893</v>
+      </c>
+      <c r="I27">
+        <v>-1.154317737549477</v>
+      </c>
+      <c r="J27">
+        <v>-0.4346939305623327</v>
+      </c>
+      <c r="K27">
+        <v>-0.7981880228183087</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>-0.04195186392760797</v>
+      </c>
+      <c r="C28">
+        <v>1.233536122258116</v>
+      </c>
+      <c r="D28">
+        <v>4.1</v>
+      </c>
+      <c r="E28">
+        <v>21.33630385521235</v>
+      </c>
+      <c r="F28">
+        <v>-11.42550598425463</v>
+      </c>
+      <c r="G28">
+        <v>-1.813188392915293</v>
+      </c>
+      <c r="H28">
+        <v>-0.806909003397877</v>
+      </c>
+      <c r="I28">
+        <v>-0.08728519641073307</v>
+      </c>
+      <c r="J28">
+        <v>-0.450779288666709</v>
+      </c>
+      <c r="K28">
+        <v>0.631368481475576</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>-1.113232095945093</v>
+      </c>
+      <c r="C29">
+        <v>1.753231781796791</v>
+      </c>
+      <c r="D29">
+        <v>18.98953563700914</v>
+      </c>
+      <c r="E29">
+        <v>-13.77227420245784</v>
+      </c>
+      <c r="F29">
+        <v>-4.159956611118502</v>
+      </c>
+      <c r="G29">
+        <v>-3.153677221601086</v>
+      </c>
+      <c r="H29">
+        <v>-2.434053414613942</v>
+      </c>
+      <c r="I29">
+        <v>-2.797547506869918</v>
+      </c>
+      <c r="J29">
+        <v>-1.715399736727633</v>
+      </c>
+      <c r="K29">
+        <v>0.6749121980652151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>4.141951863927608</v>
+      </c>
+      <c r="C30">
+        <v>21.37825571913996</v>
+      </c>
+      <c r="D30">
+        <v>-11.38355412032702</v>
+      </c>
+      <c r="E30">
+        <v>-1.771236528987685</v>
+      </c>
+      <c r="F30">
+        <v>-0.764957139470269</v>
+      </c>
+      <c r="G30">
+        <v>-0.0453333324831251</v>
+      </c>
+      <c r="H30">
+        <v>-0.4088274247391011</v>
+      </c>
+      <c r="I30">
+        <v>0.673320345403184</v>
+      </c>
+      <c r="J30">
+        <v>3.063632280196032</v>
+      </c>
+      <c r="K30">
+        <v>-0.07621377009608898</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>20.10276773295423</v>
+      </c>
+      <c r="C31">
+        <v>-12.65904210651274</v>
+      </c>
+      <c r="D31">
+        <v>-3.046724515173409</v>
+      </c>
+      <c r="E31">
+        <v>-2.040445125655992</v>
+      </c>
+      <c r="F31">
+        <v>-1.320821318668849</v>
+      </c>
+      <c r="G31">
+        <v>-1.684315410924825</v>
+      </c>
+      <c r="H31">
+        <v>-0.6021676407825396</v>
+      </c>
+      <c r="I31">
+        <v>1.788144294010308</v>
+      </c>
+      <c r="J31">
+        <v>-1.351701756281813</v>
+      </c>
+      <c r="K31">
+        <v>-0.3624946409741341</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>-15.52550598425463</v>
+      </c>
+      <c r="C32">
+        <v>-5.913188392915293</v>
+      </c>
+      <c r="D32">
+        <v>-4.906909003397877</v>
+      </c>
+      <c r="E32">
+        <v>-4.187285196410733</v>
+      </c>
+      <c r="F32">
+        <v>-4.550779288666709</v>
+      </c>
+      <c r="G32">
+        <v>-3.468631518524424</v>
+      </c>
+      <c r="H32">
+        <v>-1.078319583731576</v>
+      </c>
+      <c r="I32">
+        <v>-4.218165634023697</v>
+      </c>
+      <c r="J32">
+        <v>-3.228958518716019</v>
+      </c>
+      <c r="K32">
+        <v>-2.674022954082025</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>9.612317591339336</v>
+      </c>
+      <c r="C33">
+        <v>10.61859698085675</v>
+      </c>
+      <c r="D33">
+        <v>11.3382207878439</v>
+      </c>
+      <c r="E33">
+        <v>10.97472669558792</v>
+      </c>
+      <c r="F33">
+        <v>12.05687446573021</v>
+      </c>
+      <c r="G33">
+        <v>14.44718640052305</v>
+      </c>
+      <c r="H33">
+        <v>11.30734035023093</v>
+      </c>
+      <c r="I33">
+        <v>12.29654746553861</v>
+      </c>
+      <c r="J33">
+        <v>12.8514830301726</v>
+      </c>
+      <c r="K33">
+        <v>13.06349412702773</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>1.006279389517416</v>
+      </c>
+      <c r="C34">
+        <v>1.72590319650456</v>
+      </c>
+      <c r="D34">
+        <v>1.362409104248584</v>
+      </c>
+      <c r="E34">
+        <v>2.444556874390869</v>
+      </c>
+      <c r="F34">
+        <v>4.834868809183718</v>
+      </c>
+      <c r="G34">
+        <v>1.695022758891596</v>
+      </c>
+      <c r="H34">
+        <v>2.684229874199275</v>
+      </c>
+      <c r="I34">
+        <v>3.239165438833268</v>
+      </c>
+      <c r="J34">
+        <v>3.451176535688389</v>
+      </c>
+      <c r="K34">
+        <v>2.863125038752087</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>0.7196238069871439</v>
+      </c>
+      <c r="C35">
+        <v>0.3561297147311679</v>
+      </c>
+      <c r="D35">
+        <v>1.438277484873453</v>
+      </c>
+      <c r="E35">
+        <v>3.828589419666301</v>
+      </c>
+      <c r="F35">
+        <v>0.68874336937418</v>
+      </c>
+      <c r="G35">
+        <v>1.677950484681858</v>
+      </c>
+      <c r="H35">
+        <v>2.232886049315852</v>
+      </c>
+      <c r="I35">
+        <v>2.444897146170973</v>
+      </c>
+      <c r="J35">
+        <v>1.856845649234671</v>
+      </c>
+      <c r="K35">
+        <v>1.440685544117869</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>-0.363494092255976</v>
+      </c>
+      <c r="C36">
+        <v>0.7186536778863091</v>
+      </c>
+      <c r="D36">
+        <v>3.108965612679157</v>
+      </c>
+      <c r="E36">
+        <v>-0.03088043761296388</v>
+      </c>
+      <c r="F36">
+        <v>0.9583266776947146</v>
+      </c>
+      <c r="G36">
+        <v>1.513262242328708</v>
+      </c>
+      <c r="H36">
+        <v>1.72527333918383</v>
+      </c>
+      <c r="I36">
+        <v>1.137221842247528</v>
+      </c>
+      <c r="J36">
+        <v>0.7210617371307255</v>
+      </c>
+      <c r="K36">
+        <v>2.111204792174945</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>1.082147770142285</v>
+      </c>
+      <c r="C37">
+        <v>3.472459704935133</v>
+      </c>
+      <c r="D37">
+        <v>0.3326136546430121</v>
+      </c>
+      <c r="E37">
+        <v>1.321820769950691</v>
+      </c>
+      <c r="F37">
+        <v>1.876756334584684</v>
+      </c>
+      <c r="G37">
+        <v>2.088767431439805</v>
+      </c>
+      <c r="H37">
+        <v>1.500715934503503</v>
+      </c>
+      <c r="I37">
+        <v>1.084555829386701</v>
+      </c>
+      <c r="J37">
+        <v>2.474698884430921</v>
+      </c>
+      <c r="K37">
+        <v>1.705564754750142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>2.390311934792848</v>
+      </c>
+      <c r="C38">
+        <v>-0.749534115499273</v>
+      </c>
+      <c r="D38">
+        <v>0.2396729998084055</v>
+      </c>
+      <c r="E38">
+        <v>0.7946085644423988</v>
+      </c>
+      <c r="F38">
+        <v>1.00661966129752</v>
+      </c>
+      <c r="G38">
+        <v>0.4185681643612185</v>
+      </c>
+      <c r="H38">
+        <v>0.002408059244416505</v>
+      </c>
+      <c r="I38">
+        <v>1.392551114288636</v>
+      </c>
+      <c r="J38">
+        <v>0.6234169846078572</v>
+      </c>
+      <c r="K38">
+        <v>-1.197319267860664</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
         <v>-3.139846050292121</v>
       </c>
-      <c r="C2">
+      <c r="C39">
         <v>-2.150638934984443</v>
       </c>
-      <c r="D2">
+      <c r="D39">
         <v>-1.595703370350449</v>
       </c>
-      <c r="E2">
+      <c r="E39">
         <v>-1.383692273495328</v>
       </c>
-      <c r="F2">
+      <c r="F39">
         <v>-1.97174377043163</v>
       </c>
-      <c r="G2">
+      <c r="G39">
         <v>-2.387903875548432</v>
       </c>
-      <c r="H2">
+      <c r="H39">
         <v>-0.9977608205042121</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
+      <c r="I39">
+        <v>-1.766894950184991</v>
+      </c>
+      <c r="J39">
+        <v>-3.587631202653512</v>
+      </c>
+      <c r="K39">
+        <v>-1.774124906891288</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
         <v>0.9892071153076785</v>
       </c>
-      <c r="C3">
+      <c r="C40">
         <v>1.544142679941672</v>
       </c>
-      <c r="D3">
+      <c r="D40">
         <v>1.756153776796793</v>
       </c>
-      <c r="E3">
+      <c r="E40">
         <v>1.168102279860491</v>
       </c>
-      <c r="F3">
+      <c r="F40">
         <v>0.7519421747436894</v>
       </c>
-      <c r="G3">
+      <c r="G40">
         <v>2.142085229787909</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
+      <c r="H40">
+        <v>1.37295110010713</v>
+      </c>
+      <c r="I40">
+        <v>-0.4477851523613909</v>
+      </c>
+      <c r="J40">
+        <v>1.365721143400833</v>
+      </c>
+      <c r="K40">
+        <v>0.731460592636509</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
         <v>0.5549355646339933</v>
       </c>
-      <c r="C4">
+      <c r="C41">
         <v>0.7669466614891149</v>
       </c>
-      <c r="D4">
+      <c r="D41">
         <v>0.178895164552813</v>
       </c>
-      <c r="E4">
+      <c r="E41">
         <v>-0.237264940563989</v>
       </c>
-      <c r="F4">
+      <c r="F41">
         <v>1.15287811448023</v>
       </c>
-      <c r="G4">
+      <c r="G41">
         <v>0.3837439847994517</v>
       </c>
-      <c r="H4">
+      <c r="H41">
         <v>-1.436992267669069</v>
       </c>
-      <c r="I4">
+      <c r="I41">
         <v>0.3765140280931547</v>
       </c>
-      <c r="J4">
+      <c r="J41">
         <v>-0.2577465226711695</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
+      <c r="K41">
+        <v>0.8239697630154268</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
         <v>0.2120110968551217</v>
       </c>
-      <c r="C5">
+      <c r="C42">
         <v>-0.3760404000811803</v>
       </c>
-      <c r="D5">
+      <c r="D42">
         <v>-0.7922005051979824</v>
       </c>
-      <c r="E5">
+      <c r="E42">
         <v>0.5979425498462372</v>
       </c>
-      <c r="F5">
+      <c r="F42">
         <v>-0.1711915798345416</v>
       </c>
-      <c r="G5">
+      <c r="G42">
         <v>-1.991927832303063</v>
       </c>
-      <c r="H5">
+      <c r="H42">
         <v>-0.1784215365408386</v>
       </c>
-      <c r="I5">
+      <c r="I42">
         <v>-0.8126820873051628</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
+      <c r="J42">
+        <v>0.2690341983814335</v>
+      </c>
+      <c r="K42">
+        <v>-0.1124074349176567</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
         <v>-0.588051496936302</v>
       </c>
-      <c r="C6">
+      <c r="C43">
         <v>-1.004211602053104</v>
       </c>
-      <c r="D6">
+      <c r="D43">
         <v>0.3859314529911155</v>
       </c>
-      <c r="E6">
+      <c r="E43">
         <v>-0.3832026766896632</v>
       </c>
-      <c r="F6">
+      <c r="F43">
         <v>-2.203938929158184</v>
       </c>
-      <c r="G6">
+      <c r="G43">
         <v>-0.3904326333959602</v>
       </c>
-      <c r="H6">
+      <c r="H43">
         <v>-1.024693184160284</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7">
+      <c r="I43">
+        <v>0.05702310152631185</v>
+      </c>
+      <c r="J43">
+        <v>-0.3244185317727784</v>
+      </c>
+      <c r="K43">
+        <v>-0.6168807731396697</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
         <v>-0.416160105116802</v>
       </c>
-      <c r="C7">
+      <c r="C44">
         <v>0.9739829499274175</v>
       </c>
-      <c r="D7">
+      <c r="D44">
         <v>0.2048488202466388</v>
       </c>
-      <c r="E7">
+      <c r="E44">
         <v>-1.615887432221882</v>
       </c>
-      <c r="F7">
+      <c r="F44">
         <v>0.1976188635403417</v>
       </c>
-      <c r="G7">
+      <c r="G44">
         <v>-0.4366416872239824</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8">
+      <c r="H44">
+        <v>0.6450745984626138</v>
+      </c>
+      <c r="I44">
+        <v>0.2636329651635236</v>
+      </c>
+      <c r="J44">
+        <v>-0.02882927620336773</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
         <v>1.39014305504422</v>
       </c>
-      <c r="C8">
+      <c r="C45">
         <v>0.6210089253634408</v>
       </c>
-      <c r="D8">
+      <c r="D45">
         <v>-1.19972732710508</v>
       </c>
-      <c r="E8">
+      <c r="E45">
         <v>0.6137789686571437</v>
       </c>
-      <c r="F8">
+      <c r="F45">
         <v>-0.02048158210718048</v>
       </c>
-      <c r="G8">
+      <c r="G45">
         <v>1.061234703579416</v>
       </c>
-      <c r="H8">
+      <c r="H45">
         <v>0.6797930702803257</v>
       </c>
-      <c r="I8">
+      <c r="I45">
         <v>0.3873308289134342</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9">
+    <row r="46" spans="1:11">
+      <c r="A46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
         <v>-0.7691341296807788</v>
       </c>
-      <c r="C9">
+      <c r="C46">
         <v>-2.5898703821493</v>
       </c>
-      <c r="D9">
+      <c r="D46">
         <v>-0.7763640863870758</v>
       </c>
-      <c r="E9">
+      <c r="E46">
         <v>-1.4106246371514</v>
       </c>
-      <c r="F9">
+      <c r="F46">
         <v>-0.3289083514648037</v>
       </c>
-      <c r="G9">
+      <c r="G46">
         <v>-0.7103499847638939</v>
       </c>
-      <c r="H9">
+      <c r="H46">
         <v>-1.002812226130785</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10">
+    <row r="47" spans="1:11">
+      <c r="A47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
         <v>-1.820736252468521</v>
       </c>
-      <c r="C10">
+      <c r="C47">
         <v>-0.00722995670629703</v>
       </c>
-      <c r="D10">
+      <c r="D47">
         <v>-0.6414905074706212</v>
       </c>
-      <c r="E10">
+      <c r="E47">
         <v>0.4402257782159751</v>
       </c>
-      <c r="F10">
+      <c r="F47">
         <v>0.05878414491688488</v>
       </c>
-      <c r="G10">
+      <c r="G47">
         <v>-0.2336780964500065</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11">
+    <row r="48" spans="1:11">
+      <c r="A48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48">
         <v>1.813506295762224</v>
       </c>
-      <c r="C11">
+      <c r="C48">
         <v>1.1792457449979</v>
       </c>
-      <c r="D11">
+      <c r="D48">
         <v>2.260962030684496</v>
       </c>
-      <c r="E11">
+      <c r="E48">
         <v>1.879520397385406</v>
       </c>
-      <c r="F11">
+      <c r="F48">
         <v>1.587058156018515</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12">
+    <row r="49" spans="1:5">
+      <c r="A49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49">
         <v>-0.6342605507643242</v>
       </c>
-      <c r="C12">
+      <c r="C49">
         <v>0.4474557349222721</v>
       </c>
-      <c r="D12">
+      <c r="D49">
         <v>0.06601410162318191</v>
       </c>
-      <c r="E12">
+      <c r="E49">
         <v>-0.2264481397437094</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13">
+    <row r="50" spans="1:5">
+      <c r="A50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50">
         <v>1.081716285686596</v>
       </c>
-      <c r="C13">
+      <c r="C50">
         <v>0.7002746523875061</v>
       </c>
-      <c r="D13">
+      <c r="D50">
         <v>0.4078124110206147</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14">
+    <row r="51" spans="1:5">
+      <c r="A51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51">
         <v>-0.3814416332990902</v>
       </c>
-      <c r="C14">
+      <c r="C51">
         <v>-0.6739038746659816</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15">
+    <row r="52" spans="1:5">
+      <c r="A52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52">
         <v>-0.2924622413668914</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/EXPORT/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/EXPORT/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
@@ -600,34 +600,34 @@
         <v>10</v>
       </c>
       <c r="B2">
+        <v>1.79103706444343</v>
+      </c>
+      <c r="C2">
         <v>0.6260204014185438</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>3.269113703252032</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>3.427278199462635</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>11.11468264850727</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>12.73337812664747</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>3.873035857217758</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>-0.323063796923293</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.7785769238476101</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0.4449614463882061</v>
-      </c>
-      <c r="K2">
-        <v>-4.858590543813506</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -635,34 +635,34 @@
         <v>11</v>
       </c>
       <c r="B3">
+        <v>2.643093301833488</v>
+      </c>
+      <c r="C3">
         <v>2.801257798044091</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>10.48866224708873</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>12.10735772522892</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>3.247015455799215</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>-0.9490841983418368</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.1525565224290664</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>-0.1810589550303376</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-5.484610945232049</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.1003315235034132</v>
-      </c>
-      <c r="K3">
-        <v>0.5871892290183212</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -670,34 +670,34 @@
         <v>12</v>
       </c>
       <c r="B4">
+        <v>7.687404449044635</v>
+      </c>
+      <c r="C4">
         <v>9.306099927184832</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.4457576577551237</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>-3.750341996385928</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>-2.648701275615025</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>-2.982316753074429</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>-8.28586874327614</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>-2.700926274540678</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>-2.21406856902577</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-2.689582674310231</v>
-      </c>
-      <c r="K4">
-        <v>-3.129368712557039</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -705,34 +705,34 @@
         <v>13</v>
       </c>
       <c r="B5">
+        <v>-8.860342269429708</v>
+      </c>
+      <c r="C5">
         <v>-13.05644192357076</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>-11.95480120279986</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>-12.28841668025926</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>-17.59196867046097</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>-12.00702620172551</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>-11.5201684962106</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>-11.99568260149506</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>-12.43546863974187</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>-12.21048456176227</v>
-      </c>
-      <c r="K5">
-        <v>-8.192740291612907</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -740,34 +740,34 @@
         <v>14</v>
       </c>
       <c r="B6">
+        <v>1.101640720770903</v>
+      </c>
+      <c r="C6">
         <v>0.7680252433114991</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-4.535526746890213</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>1.04941572184525</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1.536273427360158</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1.060759322075697</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.6209732838288891</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.8459573618084879</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>4.863701631957853</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>1.65021882048356</v>
-      </c>
-      <c r="K6">
-        <v>0.1006369833736191</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -775,34 +775,34 @@
         <v>15</v>
       </c>
       <c r="B7">
+        <v>-5.303551990201711</v>
+      </c>
+      <c r="C7">
         <v>0.2813904785337509</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.7682481840486588</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.2927340787641977</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>-0.1470519594826101</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.07793211849698878</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>4.095676388646353</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.8821935771720608</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>-0.66738825993788</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>1.161529403603552</v>
-      </c>
-      <c r="K7">
-        <v>5.027363024459689</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -810,34 +810,34 @@
         <v>16</v>
       </c>
       <c r="B8">
+        <v>0.4868577055149079</v>
+      </c>
+      <c r="C8">
         <v>0.01134360023044678</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>-0.4284424380163609</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>-0.2034583600367621</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>3.814285910112603</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.6008030986383099</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>-0.9487787384716309</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.8801389250698008</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>4.745972545925937</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>4.130551327140581</v>
-      </c>
-      <c r="K8">
-        <v>-0.1020210191098689</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -845,34 +845,34 @@
         <v>17</v>
       </c>
       <c r="B9">
+        <v>-0.4397860382468077</v>
+      </c>
+      <c r="C9">
         <v>-0.2148019602672089</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>3.802942309882156</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.5894594984078632</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>-0.9601223387020776</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.8687953248393541</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>4.734628945695491</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>4.119207726910134</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>-0.1133646193403157</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>2.238148234152917</v>
-      </c>
-      <c r="K9">
-        <v>-0.1477815993096518</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -880,34 +880,34 @@
         <v>18</v>
       </c>
       <c r="B10">
+        <v>4.017744270149365</v>
+      </c>
+      <c r="C10">
         <v>0.804261458675072</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-0.7453203784348688</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>1.083597285106563</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>4.9494309059627</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>4.334009687177343</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0.1014373409268932</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>2.452950194420126</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.06702036095755703</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>2.365724277491765</v>
-      </c>
-      <c r="K10">
-        <v>1.376678022152262</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -915,34 +915,34 @@
         <v>19</v>
       </c>
       <c r="B11">
+        <v>-1.549581837109941</v>
+      </c>
+      <c r="C11">
         <v>0.2793358264314909</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>4.145169447287628</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>3.529748228502271</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-0.7028241177481789</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>1.648688735745054</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>-0.737241097717515</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>1.561462818816693</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.5724165634771901</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>-0.220669009800958</v>
-      </c>
-      <c r="K11">
-        <v>0.7284446604436279</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -950,34 +950,34 @@
         <v>20</v>
       </c>
       <c r="B12">
+        <v>3.865833620856137</v>
+      </c>
+      <c r="C12">
         <v>3.25041240207078</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>-0.9821599441796698</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>1.369352909313563</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-1.016576924149006</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>1.282126992385202</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0.2930807370456991</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>-0.500004836232449</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.449108834012137</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>0.6431813506550559</v>
-      </c>
-      <c r="K12">
-        <v>-0.348827770563986</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -985,34 +985,34 @@
         <v>21</v>
       </c>
       <c r="B13">
+        <v>-4.23257234625045</v>
+      </c>
+      <c r="C13">
         <v>-1.881059492757217</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>-4.266989326219786</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>-1.968285409685578</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>-2.957331665025081</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>-3.750417238303229</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>-2.801303568058643</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>-2.607231051415724</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>-3.599240172634766</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>-2.020921084902313</v>
-      </c>
-      <c r="K13">
-        <v>-1.161311817552161</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1020,34 +1020,34 @@
         <v>22</v>
       </c>
       <c r="B14">
+        <v>-2.385929833462569</v>
+      </c>
+      <c r="C14">
         <v>-0.08722591692836087</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>-1.076272172267864</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>-1.869357745546012</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>-0.9202440753014258</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>-0.7261715586585069</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>-1.718180679877549</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>-0.1398615921450954</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.7197476752050562</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>-0.8998209001863131</v>
-      </c>
-      <c r="K14">
-        <v>-1.166974330348282</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1055,34 +1055,34 @@
         <v>23</v>
       </c>
       <c r="B15">
+        <v>-0.9890462553395027</v>
+      </c>
+      <c r="C15">
         <v>-1.782131828617651</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>-0.8330181583730649</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>-0.638945641730146</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>-1.630954762949188</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>-0.05263567521673451</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>0.8069735921334171</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>-0.8125949832579522</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>-1.079748413419921</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>0.5667632300900323</v>
-      </c>
-      <c r="K15">
-        <v>-1.51813091655518</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1090,34 +1090,34 @@
         <v>24</v>
       </c>
       <c r="B16">
+        <v>0.9491136702445859</v>
+      </c>
+      <c r="C16">
         <v>1.143186186887505</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.151177065668463</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>1.729496153400916</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>2.589105420751068</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.9695368453596986</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>0.70238341519773</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>2.348895058707683</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.2640009120624711</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>0.6570799836550241</v>
-      </c>
-      <c r="K16">
-        <v>0.902482457127064</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1125,34 +1125,34 @@
         <v>25</v>
       </c>
       <c r="B17">
+        <v>-0.9920091212190418</v>
+      </c>
+      <c r="C17">
         <v>0.5863099665134115</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>1.445919233863563</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>-0.1736493415278062</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>-0.4408027716897749</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>1.205708871820178</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>-0.8791852748250337</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>-0.4861062032324808</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>-0.2407037297604409</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>-0.8561930079172557</v>
-      </c>
-      <c r="K17">
-        <v>-1.933167486222601</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1160,34 +1160,34 @@
         <v>26</v>
       </c>
       <c r="B18">
+        <v>0.8596092673501516</v>
+      </c>
+      <c r="C18">
         <v>-0.7599593080412177</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>-1.027112738203186</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>0.6193989053067668</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>-1.465495241338445</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>-1.072416169745892</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>-0.8270136962738524</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>-1.442502974430667</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>-2.519477452736012</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>1.258187789322122</v>
-      </c>
-      <c r="K18">
-        <v>-0.4640648662544038</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1195,34 +1195,34 @@
         <v>27</v>
       </c>
       <c r="B19">
+        <v>-0.2671534301619687</v>
+      </c>
+      <c r="C19">
         <v>1.379358213347984</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>-0.7055359332972275</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>-0.3124568617046746</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>-0.06705438823263465</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>-0.6825436663894495</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>-1.759518144694795</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>2.01814709736334</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>0.2958944417868139</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>1.877460723290164</v>
-      </c>
-      <c r="K19">
-        <v>0.3248694574417641</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1230,34 +1230,34 @@
         <v>28</v>
       </c>
       <c r="B20">
+        <v>-2.084894146645212</v>
+      </c>
+      <c r="C20">
         <v>-1.691815075052659</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>-1.446412601580619</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>-2.061901879737434</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>-3.138876358042779</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>0.6387888840153551</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>-1.083463771561171</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>0.4981025099421799</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>-1.05448875590622</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>-1.40189749005782</v>
-      </c>
-      <c r="K20">
-        <v>0.944870728145389</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1265,34 +1265,34 @@
         <v>29</v>
       </c>
       <c r="B21">
+        <v>0.2454024734720399</v>
+      </c>
+      <c r="C21">
         <v>-0.370086804684775</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>-1.44706128299012</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>2.330603959068014</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>0.6083513034914885</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>2.189917584994839</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.6373263191464387</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.289917584994839</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>2.636685803198048</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>0.247965721067231</v>
-      </c>
-      <c r="K21">
-        <v>1.523453707252955</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1300,34 +1300,34 @@
         <v>30</v>
       </c>
       <c r="B22">
+        <v>-1.076974478305345</v>
+      </c>
+      <c r="C22">
         <v>2.700690763752789</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.9784381081762634</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>2.560004389679614</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>1.007413123831214</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.6600043896796139</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>3.006772607882823</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>0.618052525752006</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>1.89354051193773</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>4.760004389679614</v>
-      </c>
-      <c r="K22">
-        <v>21.99630824489196</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1335,34 +1335,34 @@
         <v>31</v>
       </c>
       <c r="B23">
+        <v>3.777665242058134</v>
+      </c>
+      <c r="C23">
         <v>2.055412586481609</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>3.636978867984959</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>2.084387602136559</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>1.736978867984959</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>4.083747086188168</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>1.695027004057351</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>2.970514990243075</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>5.836978867984959</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>23.07328272319731</v>
-      </c>
-      <c r="K23">
-        <v>-9.68852711626967</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1370,34 +1370,34 @@
         <v>32</v>
       </c>
       <c r="B24">
+        <v>-1.722252655576526</v>
+      </c>
+      <c r="C24">
         <v>-0.1406863740731751</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>-1.693277639921575</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>-2.040686374073175</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>0.3060818441300339</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>-2.082638238000783</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>-0.8071502518150595</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>2.059313625926825</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>19.29561748113917</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>-13.4661923583278</v>
-      </c>
-      <c r="K24">
-        <v>-3.853874766988468</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1405,34 +1405,34 @@
         <v>33</v>
       </c>
       <c r="B25">
+        <v>1.58156628150335</v>
+      </c>
+      <c r="C25">
         <v>0.0289750156549502</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>-0.3184337184966495</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>2.02833449970656</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>-0.3603855824242574</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>0.9151024037614661</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>3.781566281503351</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>21.0178701367157</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>-11.74393970275128</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>-2.131622111411942</v>
-      </c>
-      <c r="K25">
-        <v>-1.125342721894526</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1440,34 +1440,34 @@
         <v>34</v>
       </c>
       <c r="B26">
+        <v>-1.5525912658484</v>
+      </c>
+      <c r="C26">
         <v>-1.9</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>0.446768218203209</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>-1.941951863927608</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>-0.6664638777418844</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>2.2</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>19.43630385521235</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>-13.32550598425463</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>-3.713188392915293</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>-2.706909003397877</v>
-      </c>
-      <c r="K26">
-        <v>-1.987285196410733</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1475,34 +1475,34 @@
         <v>35</v>
       </c>
       <c r="B27">
+        <v>-0.3474087341515997</v>
+      </c>
+      <c r="C27">
         <v>1.999359484051609</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>-0.3893605980792076</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>0.8861273881065159</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>3.7525912658484</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>20.98889512106075</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>-11.77291471840623</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>-2.160597127066893</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>-1.154317737549477</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>-0.4346939305623327</v>
-      </c>
-      <c r="K27">
-        <v>-0.7981880228183087</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1510,34 +1510,34 @@
         <v>36</v>
       </c>
       <c r="B28">
+        <v>2.346768218203209</v>
+      </c>
+      <c r="C28">
         <v>-0.04195186392760797</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>1.233536122258116</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>4.1</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>21.33630385521235</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>-11.42550598425463</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>-1.813188392915293</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>-0.806909003397877</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>-0.08728519641073307</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>-0.450779288666709</v>
-      </c>
-      <c r="K28">
-        <v>0.631368481475576</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1545,34 +1545,34 @@
         <v>37</v>
       </c>
       <c r="B29">
+        <v>-2.388720082130817</v>
+      </c>
+      <c r="C29">
         <v>-1.113232095945093</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>1.753231781796791</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>18.98953563700914</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>-13.77227420245784</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>-4.159956611118502</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>-3.153677221601086</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>-2.434053414613942</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>-2.797547506869918</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>-1.715399736727633</v>
-      </c>
-      <c r="K29">
-        <v>0.6749121980652151</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1580,34 +1580,34 @@
         <v>38</v>
       </c>
       <c r="B30">
+        <v>1.275487986185724</v>
+      </c>
+      <c r="C30">
         <v>4.141951863927608</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>21.37825571913996</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>-11.38355412032702</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>-1.771236528987685</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>-0.764957139470269</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>-0.0453333324831251</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>-0.4088274247391011</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>0.673320345403184</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>3.063632280196032</v>
-      </c>
-      <c r="K30">
-        <v>-0.07621377009608898</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1615,34 +1615,34 @@
         <v>39</v>
       </c>
       <c r="B31">
+        <v>2.866463877741884</v>
+      </c>
+      <c r="C31">
         <v>20.10276773295423</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>-12.65904210651274</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>-3.046724515173409</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>-2.040445125655992</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>-1.320821318668849</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>-1.684315410924825</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>-0.6021676407825396</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>1.788144294010308</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>-1.351701756281813</v>
-      </c>
-      <c r="K31">
-        <v>-0.3624946409741341</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1650,34 +1650,34 @@
         <v>40</v>
       </c>
       <c r="B32">
+        <v>17.23630385521235</v>
+      </c>
+      <c r="C32">
         <v>-15.52550598425463</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>-5.913188392915293</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>-4.906909003397877</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>-4.187285196410733</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>-4.550779288666709</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>-3.468631518524424</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>-1.078319583731576</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>-4.218165634023697</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>-3.228958518716019</v>
-      </c>
-      <c r="K32">
-        <v>-2.674022954082025</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1685,34 +1685,34 @@
         <v>41</v>
       </c>
       <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
         <v>9.612317591339336</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>10.61859698085675</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>11.3382207878439</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>10.97472669558792</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>12.05687446573021</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>14.44718640052305</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>11.30734035023093</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>12.29654746553861</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>12.8514830301726</v>
-      </c>
-      <c r="K33">
-        <v>13.06349412702773</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1720,34 +1720,34 @@
         <v>42</v>
       </c>
       <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
         <v>1.006279389517416</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>1.72590319650456</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>1.362409104248584</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>2.444556874390869</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>4.834868809183718</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>1.695022758891596</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>2.684229874199275</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>3.239165438833268</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>3.451176535688389</v>
-      </c>
-      <c r="K34">
-        <v>2.863125038752087</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1755,34 +1755,31 @@
         <v>43</v>
       </c>
       <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
         <v>0.7196238069871439</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>0.3561297147311679</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>1.438277484873453</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>3.828589419666301</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>0.68874336937418</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>1.677950484681858</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>2.232886049315852</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>2.444897146170973</v>
-      </c>
-      <c r="J35">
-        <v>1.856845649234671</v>
-      </c>
-      <c r="K35">
-        <v>1.440685544117869</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1790,34 +1787,28 @@
         <v>44</v>
       </c>
       <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
         <v>-0.363494092255976</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>0.7186536778863091</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>3.108965612679157</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>-0.03088043761296388</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>0.9583266776947146</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>1.513262242328708</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>1.72527333918383</v>
-      </c>
-      <c r="I36">
-        <v>1.137221842247528</v>
-      </c>
-      <c r="J36">
-        <v>0.7210617371307255</v>
-      </c>
-      <c r="K36">
-        <v>2.111204792174945</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1825,34 +1816,25 @@
         <v>45</v>
       </c>
       <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
         <v>1.082147770142285</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>3.472459704935133</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>0.3326136546430121</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>1.321820769950691</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>1.876756334584684</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>2.088767431439805</v>
-      </c>
-      <c r="H37">
-        <v>1.500715934503503</v>
-      </c>
-      <c r="I37">
-        <v>1.084555829386701</v>
-      </c>
-      <c r="J37">
-        <v>2.474698884430921</v>
-      </c>
-      <c r="K37">
-        <v>1.705564754750142</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1860,34 +1842,22 @@
         <v>46</v>
       </c>
       <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
         <v>2.390311934792848</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>-0.749534115499273</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>0.2396729998084055</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>0.7946085644423988</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>1.00661966129752</v>
-      </c>
-      <c r="G38">
-        <v>0.4185681643612185</v>
-      </c>
-      <c r="H38">
-        <v>0.002408059244416505</v>
-      </c>
-      <c r="I38">
-        <v>1.392551114288636</v>
-      </c>
-      <c r="J38">
-        <v>0.6234169846078572</v>
-      </c>
-      <c r="K38">
-        <v>-1.197319267860664</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1895,34 +1865,19 @@
         <v>47</v>
       </c>
       <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
         <v>-3.139846050292121</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>-2.150638934984443</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>-1.595703370350449</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>-1.383692273495328</v>
-      </c>
-      <c r="F39">
-        <v>-1.97174377043163</v>
-      </c>
-      <c r="G39">
-        <v>-2.387903875548432</v>
-      </c>
-      <c r="H39">
-        <v>-0.9977608205042121</v>
-      </c>
-      <c r="I39">
-        <v>-1.766894950184991</v>
-      </c>
-      <c r="J39">
-        <v>-3.587631202653512</v>
-      </c>
-      <c r="K39">
-        <v>-1.774124906891288</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1930,34 +1885,16 @@
         <v>48</v>
       </c>
       <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
         <v>0.9892071153076785</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>1.544142679941672</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>1.756153776796793</v>
-      </c>
-      <c r="E40">
-        <v>1.168102279860491</v>
-      </c>
-      <c r="F40">
-        <v>0.7519421747436894</v>
-      </c>
-      <c r="G40">
-        <v>2.142085229787909</v>
-      </c>
-      <c r="H40">
-        <v>1.37295110010713</v>
-      </c>
-      <c r="I40">
-        <v>-0.4477851523613909</v>
-      </c>
-      <c r="J40">
-        <v>1.365721143400833</v>
-      </c>
-      <c r="K40">
-        <v>0.731460592636509</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1965,34 +1902,13 @@
         <v>49</v>
       </c>
       <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
         <v>0.5549355646339933</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>0.7669466614891149</v>
-      </c>
-      <c r="D41">
-        <v>0.178895164552813</v>
-      </c>
-      <c r="E41">
-        <v>-0.237264940563989</v>
-      </c>
-      <c r="F41">
-        <v>1.15287811448023</v>
-      </c>
-      <c r="G41">
-        <v>0.3837439847994517</v>
-      </c>
-      <c r="H41">
-        <v>-1.436992267669069</v>
-      </c>
-      <c r="I41">
-        <v>0.3765140280931547</v>
-      </c>
-      <c r="J41">
-        <v>-0.2577465226711695</v>
-      </c>
-      <c r="K41">
-        <v>0.8239697630154268</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2000,34 +1916,10 @@
         <v>50</v>
       </c>
       <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
         <v>0.2120110968551217</v>
-      </c>
-      <c r="C42">
-        <v>-0.3760404000811803</v>
-      </c>
-      <c r="D42">
-        <v>-0.7922005051979824</v>
-      </c>
-      <c r="E42">
-        <v>0.5979425498462372</v>
-      </c>
-      <c r="F42">
-        <v>-0.1711915798345416</v>
-      </c>
-      <c r="G42">
-        <v>-1.991927832303063</v>
-      </c>
-      <c r="H42">
-        <v>-0.1784215365408386</v>
-      </c>
-      <c r="I42">
-        <v>-0.8126820873051628</v>
-      </c>
-      <c r="J42">
-        <v>0.2690341983814335</v>
-      </c>
-      <c r="K42">
-        <v>-0.1124074349176567</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2035,217 +1927,55 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.588051496936302</v>
-      </c>
-      <c r="C43">
-        <v>-1.004211602053104</v>
-      </c>
-      <c r="D43">
-        <v>0.3859314529911155</v>
-      </c>
-      <c r="E43">
-        <v>-0.3832026766896632</v>
-      </c>
-      <c r="F43">
-        <v>-2.203938929158184</v>
-      </c>
-      <c r="G43">
-        <v>-0.3904326333959602</v>
-      </c>
-      <c r="H43">
-        <v>-1.024693184160284</v>
-      </c>
-      <c r="I43">
-        <v>0.05702310152631185</v>
-      </c>
-      <c r="J43">
-        <v>-0.3244185317727784</v>
-      </c>
-      <c r="K43">
-        <v>-0.6168807731396697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B44">
-        <v>-0.416160105116802</v>
-      </c>
-      <c r="C44">
-        <v>0.9739829499274175</v>
-      </c>
-      <c r="D44">
-        <v>0.2048488202466388</v>
-      </c>
-      <c r="E44">
-        <v>-1.615887432221882</v>
-      </c>
-      <c r="F44">
-        <v>0.1976188635403417</v>
-      </c>
-      <c r="G44">
-        <v>-0.4366416872239824</v>
-      </c>
-      <c r="H44">
-        <v>0.6450745984626138</v>
-      </c>
-      <c r="I44">
-        <v>0.2636329651635236</v>
-      </c>
-      <c r="J44">
-        <v>-0.02882927620336773</v>
-      </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B45">
-        <v>1.39014305504422</v>
-      </c>
-      <c r="C45">
-        <v>0.6210089253634408</v>
-      </c>
-      <c r="D45">
-        <v>-1.19972732710508</v>
-      </c>
-      <c r="E45">
-        <v>0.6137789686571437</v>
-      </c>
-      <c r="F45">
-        <v>-0.02048158210718048</v>
-      </c>
-      <c r="G45">
-        <v>1.061234703579416</v>
-      </c>
-      <c r="H45">
-        <v>0.6797930702803257</v>
-      </c>
-      <c r="I45">
-        <v>0.3873308289134342</v>
-      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B46">
-        <v>-0.7691341296807788</v>
-      </c>
-      <c r="C46">
-        <v>-2.5898703821493</v>
-      </c>
-      <c r="D46">
-        <v>-0.7763640863870758</v>
-      </c>
-      <c r="E46">
-        <v>-1.4106246371514</v>
-      </c>
-      <c r="F46">
-        <v>-0.3289083514648037</v>
-      </c>
-      <c r="G46">
-        <v>-0.7103499847638939</v>
-      </c>
-      <c r="H46">
-        <v>-1.002812226130785</v>
-      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B47">
-        <v>-1.820736252468521</v>
-      </c>
-      <c r="C47">
-        <v>-0.00722995670629703</v>
-      </c>
-      <c r="D47">
-        <v>-0.6414905074706212</v>
-      </c>
-      <c r="E47">
-        <v>0.4402257782159751</v>
-      </c>
-      <c r="F47">
-        <v>0.05878414491688488</v>
-      </c>
-      <c r="G47">
-        <v>-0.2336780964500065</v>
-      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B48">
-        <v>1.813506295762224</v>
-      </c>
-      <c r="C48">
-        <v>1.1792457449979</v>
-      </c>
-      <c r="D48">
-        <v>2.260962030684496</v>
-      </c>
-      <c r="E48">
-        <v>1.879520397385406</v>
-      </c>
-      <c r="F48">
-        <v>1.587058156018515</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+    </row>
+    <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B49">
-        <v>-0.6342605507643242</v>
-      </c>
-      <c r="C49">
-        <v>0.4474557349222721</v>
-      </c>
-      <c r="D49">
-        <v>0.06601410162318191</v>
-      </c>
-      <c r="E49">
-        <v>-0.2264481397437094</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+    </row>
+    <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B50">
-        <v>1.081716285686596</v>
-      </c>
-      <c r="C50">
-        <v>0.7002746523875061</v>
-      </c>
-      <c r="D50">
-        <v>0.4078124110206147</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+    </row>
+    <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B51">
-        <v>-0.3814416332990902</v>
-      </c>
-      <c r="C51">
-        <v>-0.6739038746659816</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+    </row>
+    <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B52">
-        <v>-0.2924622413668914</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+    </row>
+    <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>

--- a/3_Component_Results/EXPORT/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/EXPORT/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
@@ -1397,7 +1397,7 @@
         <v>19.29561748113917</v>
       </c>
       <c r="K24">
-        <v>-13.4661923583278</v>
+        <v>-19.18321641127324</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1429,10 +1429,10 @@
         <v>21.0178701367157</v>
       </c>
       <c r="J25">
-        <v>-11.74393970275128</v>
+        <v>-17.46096375569671</v>
       </c>
       <c r="K25">
-        <v>-2.131622111411942</v>
+        <v>-3.862991559831116</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1461,13 +1461,13 @@
         <v>19.43630385521235</v>
       </c>
       <c r="I26">
-        <v>-13.32550598425463</v>
+        <v>-19.04253003720006</v>
       </c>
       <c r="J26">
-        <v>-3.713188392915293</v>
+        <v>-5.444557841334467</v>
       </c>
       <c r="K26">
-        <v>-2.706909003397877</v>
+        <v>-2.749039957006937</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1493,16 +1493,16 @@
         <v>20.98889512106075</v>
       </c>
       <c r="H27">
-        <v>-11.77291471840623</v>
+        <v>-17.48993877135166</v>
       </c>
       <c r="I27">
-        <v>-2.160597127066893</v>
+        <v>-3.891966575486066</v>
       </c>
       <c r="J27">
-        <v>-1.154317737549477</v>
+        <v>-1.196448691158537</v>
       </c>
       <c r="K27">
-        <v>-0.4346939305623327</v>
+        <v>0.1128003469303707</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1525,19 +1525,19 @@
         <v>21.33630385521235</v>
       </c>
       <c r="G28">
-        <v>-11.42550598425463</v>
+        <v>-17.14253003720006</v>
       </c>
       <c r="H28">
-        <v>-1.813188392915293</v>
+        <v>-3.544557841334466</v>
       </c>
       <c r="I28">
-        <v>-0.806909003397877</v>
+        <v>-0.8490399570069369</v>
       </c>
       <c r="J28">
-        <v>-0.08728519641073307</v>
+        <v>0.4602090810819703</v>
       </c>
       <c r="K28">
-        <v>-0.450779288666709</v>
+        <v>1.98156889852946</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1557,22 +1557,22 @@
         <v>18.98953563700914</v>
       </c>
       <c r="F29">
-        <v>-13.77227420245784</v>
+        <v>-19.48929825540327</v>
       </c>
       <c r="G29">
-        <v>-4.159956611118502</v>
+        <v>-5.891326059537676</v>
       </c>
       <c r="H29">
-        <v>-3.153677221601086</v>
+        <v>-3.195808175210146</v>
       </c>
       <c r="I29">
-        <v>-2.434053414613942</v>
+        <v>-1.886559137121239</v>
       </c>
       <c r="J29">
-        <v>-2.797547506869918</v>
+        <v>-0.3651993196737491</v>
       </c>
       <c r="K29">
-        <v>-1.715399736727633</v>
+        <v>-6.130940961804114</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1589,25 +1589,25 @@
         <v>21.37825571913996</v>
       </c>
       <c r="E30">
-        <v>-11.38355412032702</v>
+        <v>-17.10057817327245</v>
       </c>
       <c r="F30">
-        <v>-1.771236528987685</v>
+        <v>-3.502605977406859</v>
       </c>
       <c r="G30">
-        <v>-0.764957139470269</v>
+        <v>-0.8070880930793289</v>
       </c>
       <c r="H30">
-        <v>-0.0453333324831251</v>
+        <v>0.5021609450095783</v>
       </c>
       <c r="I30">
-        <v>-0.4088274247391011</v>
+        <v>2.023520762457068</v>
       </c>
       <c r="J30">
-        <v>0.673320345403184</v>
+        <v>-3.742220879673297</v>
       </c>
       <c r="K30">
-        <v>3.063632280196032</v>
+        <v>3.165469857548658</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1621,28 +1621,28 @@
         <v>20.10276773295423</v>
       </c>
       <c r="D31">
-        <v>-12.65904210651274</v>
+        <v>-18.37606615945818</v>
       </c>
       <c r="E31">
-        <v>-3.046724515173409</v>
+        <v>-4.778093963592582</v>
       </c>
       <c r="F31">
-        <v>-2.040445125655992</v>
+        <v>-2.082576079265053</v>
       </c>
       <c r="G31">
-        <v>-1.320821318668849</v>
+        <v>-0.7733270411761453</v>
       </c>
       <c r="H31">
-        <v>-1.684315410924825</v>
+        <v>0.7480327762713443</v>
       </c>
       <c r="I31">
-        <v>-0.6021676407825396</v>
+        <v>-5.017708865859021</v>
       </c>
       <c r="J31">
-        <v>1.788144294010308</v>
+        <v>1.889981871362934</v>
       </c>
       <c r="K31">
-        <v>-1.351701756281813</v>
+        <v>-0.5203221319907101</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1653,31 +1653,31 @@
         <v>17.23630385521235</v>
       </c>
       <c r="C32">
-        <v>-15.52550598425463</v>
+        <v>-21.24253003720006</v>
       </c>
       <c r="D32">
-        <v>-5.913188392915293</v>
+        <v>-7.644557841334466</v>
       </c>
       <c r="E32">
-        <v>-4.906909003397877</v>
+        <v>-4.949039957006937</v>
       </c>
       <c r="F32">
-        <v>-4.187285196410733</v>
+        <v>-3.63979091891803</v>
       </c>
       <c r="G32">
-        <v>-4.550779288666709</v>
+        <v>-2.11843110147054</v>
       </c>
       <c r="H32">
-        <v>-3.468631518524424</v>
+        <v>-7.884172743600905</v>
       </c>
       <c r="I32">
-        <v>-1.078319583731576</v>
+        <v>-0.9764820063789501</v>
       </c>
       <c r="J32">
-        <v>-4.218165634023697</v>
+        <v>-3.386786009732595</v>
       </c>
       <c r="K32">
-        <v>-3.228958518716019</v>
+        <v>-5.082042055103904</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1685,34 +1685,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>-38.47883389241241</v>
       </c>
       <c r="C33">
-        <v>9.612317591339336</v>
+        <v>-24.88086169654682</v>
       </c>
       <c r="D33">
-        <v>10.61859698085675</v>
+        <v>-22.18534381221929</v>
       </c>
       <c r="E33">
-        <v>11.3382207878439</v>
+        <v>-20.87609477413038</v>
       </c>
       <c r="F33">
-        <v>10.97472669558792</v>
+        <v>-19.35473495668289</v>
       </c>
       <c r="G33">
-        <v>12.05687446573021</v>
+        <v>-25.12047659881326</v>
       </c>
       <c r="H33">
-        <v>14.44718640052305</v>
+        <v>-18.2127858615913</v>
       </c>
       <c r="I33">
-        <v>11.30734035023093</v>
+        <v>-20.62308986494494</v>
       </c>
       <c r="J33">
-        <v>12.29654746553861</v>
+        <v>-22.31834591031625</v>
       </c>
       <c r="K33">
-        <v>12.8514830301726</v>
+        <v>-19.37902846813061</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1720,34 +1720,34 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>13.59797219586559</v>
       </c>
       <c r="C34">
-        <v>1.006279389517416</v>
+        <v>16.29349008019312</v>
       </c>
       <c r="D34">
-        <v>1.72590319650456</v>
+        <v>17.60273911828203</v>
       </c>
       <c r="E34">
-        <v>1.362409104248584</v>
+        <v>19.12409893572952</v>
       </c>
       <c r="F34">
-        <v>2.444556874390869</v>
+        <v>13.35835729359916</v>
       </c>
       <c r="G34">
-        <v>4.834868809183718</v>
+        <v>20.26604803082111</v>
       </c>
       <c r="H34">
-        <v>1.695022758891596</v>
+        <v>17.85574402746747</v>
       </c>
       <c r="I34">
-        <v>2.684229874199275</v>
+        <v>16.16048798209616</v>
       </c>
       <c r="J34">
-        <v>3.239165438833268</v>
+        <v>19.0998054242818</v>
       </c>
       <c r="K34">
-        <v>3.451176535688389</v>
+        <v>17.72090440315328</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1755,31 +1755,34 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>2.695517884327529</v>
       </c>
       <c r="C35">
-        <v>0.7196238069871439</v>
+        <v>4.004766922416437</v>
       </c>
       <c r="D35">
-        <v>0.3561297147311679</v>
+        <v>5.526126739863926</v>
       </c>
       <c r="E35">
-        <v>1.438277484873453</v>
+        <v>-0.2396149022664389</v>
       </c>
       <c r="F35">
-        <v>3.828589419666301</v>
+        <v>6.668075834955516</v>
       </c>
       <c r="G35">
-        <v>0.68874336937418</v>
+        <v>4.257771831601872</v>
       </c>
       <c r="H35">
-        <v>1.677950484681858</v>
+        <v>2.562515786230562</v>
       </c>
       <c r="I35">
-        <v>2.232886049315852</v>
+        <v>5.501833228416203</v>
       </c>
       <c r="J35">
-        <v>2.444897146170973</v>
+        <v>4.12293220728769</v>
+      </c>
+      <c r="K35">
+        <v>5.627651391037844</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1787,28 +1790,34 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>1.309249038088907</v>
       </c>
       <c r="C36">
-        <v>-0.363494092255976</v>
+        <v>2.830608855536397</v>
       </c>
       <c r="D36">
-        <v>0.7186536778863091</v>
+        <v>-2.935132786593968</v>
       </c>
       <c r="E36">
-        <v>3.108965612679157</v>
+        <v>3.972557950627987</v>
       </c>
       <c r="F36">
-        <v>-0.03088043761296388</v>
+        <v>1.562253947274342</v>
       </c>
       <c r="G36">
-        <v>0.9583266776947146</v>
+        <v>-0.1330020980969671</v>
       </c>
       <c r="H36">
-        <v>1.513262242328708</v>
+        <v>2.806315344088674</v>
       </c>
       <c r="I36">
-        <v>1.72527333918383</v>
+        <v>1.42741432296016</v>
+      </c>
+      <c r="J36">
+        <v>2.932133506710315</v>
+      </c>
+      <c r="K36">
+        <v>2.605412008371104</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1816,25 +1825,34 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>1.52135981744749</v>
       </c>
       <c r="C37">
-        <v>1.082147770142285</v>
+        <v>-4.244381824682876</v>
       </c>
       <c r="D37">
-        <v>3.472459704935133</v>
+        <v>2.66330891253908</v>
       </c>
       <c r="E37">
-        <v>0.3326136546430121</v>
+        <v>0.2530049091854352</v>
       </c>
       <c r="F37">
-        <v>1.321820769950691</v>
+        <v>-1.442251136185874</v>
       </c>
       <c r="G37">
-        <v>1.876756334584684</v>
+        <v>1.497066305999766</v>
       </c>
       <c r="H37">
-        <v>2.088767431439805</v>
+        <v>0.1181652848712531</v>
+      </c>
+      <c r="I37">
+        <v>1.622884468621408</v>
+      </c>
+      <c r="J37">
+        <v>1.296162970282197</v>
+      </c>
+      <c r="K37">
+        <v>2.134262027593551</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1842,22 +1860,34 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>-5.765741642130365</v>
       </c>
       <c r="C38">
-        <v>2.390311934792848</v>
+        <v>1.14194909509159</v>
       </c>
       <c r="D38">
-        <v>-0.749534115499273</v>
+        <v>-1.268354908262054</v>
       </c>
       <c r="E38">
-        <v>0.2396729998084055</v>
+        <v>-2.963610953633364</v>
       </c>
       <c r="F38">
-        <v>0.7946085644423988</v>
+        <v>-0.0242935114477234</v>
       </c>
       <c r="G38">
-        <v>1.00661966129752</v>
+        <v>-1.403194532576236</v>
+      </c>
+      <c r="H38">
+        <v>0.1015246511739181</v>
+      </c>
+      <c r="I38">
+        <v>-0.225196847165293</v>
+      </c>
+      <c r="J38">
+        <v>0.6129022101460611</v>
+      </c>
+      <c r="K38">
+        <v>-2.06679770341519</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1865,19 +1895,34 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>6.907690737221955</v>
       </c>
       <c r="C39">
-        <v>-3.139846050292121</v>
+        <v>4.497386733868311</v>
       </c>
       <c r="D39">
-        <v>-2.150638934984443</v>
+        <v>2.802130688497001</v>
       </c>
       <c r="E39">
-        <v>-1.595703370350449</v>
+        <v>5.741448130682642</v>
       </c>
       <c r="F39">
-        <v>-1.383692273495328</v>
+        <v>4.362547109554129</v>
+      </c>
+      <c r="G39">
+        <v>5.867266293304283</v>
+      </c>
+      <c r="H39">
+        <v>5.540544794965072</v>
+      </c>
+      <c r="I39">
+        <v>6.378643852276426</v>
+      </c>
+      <c r="J39">
+        <v>3.698943938715175</v>
+      </c>
+      <c r="K39">
+        <v>4.934366632778122</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1885,16 +1930,34 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>-2.410304003353644</v>
       </c>
       <c r="C40">
-        <v>0.9892071153076785</v>
+        <v>-4.105560048724954</v>
       </c>
       <c r="D40">
-        <v>1.544142679941672</v>
+        <v>-1.166242606539313</v>
       </c>
       <c r="E40">
-        <v>1.756153776796793</v>
+        <v>-2.545143627667827</v>
+      </c>
+      <c r="F40">
+        <v>-1.040424443917672</v>
+      </c>
+      <c r="G40">
+        <v>-1.367145942256883</v>
+      </c>
+      <c r="H40">
+        <v>-0.529046884945529</v>
+      </c>
+      <c r="I40">
+        <v>-3.20874679850678</v>
+      </c>
+      <c r="J40">
+        <v>-1.973324104443833</v>
+      </c>
+      <c r="K40">
+        <v>-0.2490198157013881</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1902,13 +1965,34 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>-1.695256045371309</v>
       </c>
       <c r="C41">
-        <v>0.5549355646339933</v>
+        <v>1.244061396814331</v>
       </c>
       <c r="D41">
-        <v>0.7669466614891149</v>
+        <v>-0.1348396243141821</v>
+      </c>
+      <c r="E41">
+        <v>1.369879559435973</v>
+      </c>
+      <c r="F41">
+        <v>1.043158061096761</v>
+      </c>
+      <c r="G41">
+        <v>1.881257118408115</v>
+      </c>
+      <c r="H41">
+        <v>-0.7984427951531354</v>
+      </c>
+      <c r="I41">
+        <v>0.4369798989098115</v>
+      </c>
+      <c r="J41">
+        <v>2.161284187652257</v>
+      </c>
+      <c r="K41">
+        <v>2.527729380265284</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1916,10 +2000,34 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>2.939317442185641</v>
       </c>
       <c r="C42">
-        <v>0.2120110968551217</v>
+        <v>1.560416421057127</v>
+      </c>
+      <c r="D42">
+        <v>3.065135604807282</v>
+      </c>
+      <c r="E42">
+        <v>2.738414106468071</v>
+      </c>
+      <c r="F42">
+        <v>3.576513163779425</v>
+      </c>
+      <c r="G42">
+        <v>0.896813250218174</v>
+      </c>
+      <c r="H42">
+        <v>2.132235944281121</v>
+      </c>
+      <c r="I42">
+        <v>3.856540233023566</v>
+      </c>
+      <c r="J42">
+        <v>4.222985425636594</v>
+      </c>
+      <c r="K42">
+        <v>-1.252462014395462</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1927,55 +2035,217 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>-1.378901021128513</v>
+      </c>
+      <c r="C43">
+        <v>0.1258181626216415</v>
+      </c>
+      <c r="D43">
+        <v>-0.2009033357175696</v>
+      </c>
+      <c r="E43">
+        <v>0.6371957215937845</v>
+      </c>
+      <c r="F43">
+        <v>-2.042504191967466</v>
+      </c>
+      <c r="G43">
+        <v>-0.8070814979045196</v>
+      </c>
+      <c r="H43">
+        <v>0.9172227908379254</v>
+      </c>
+      <c r="I43">
+        <v>1.283667983450953</v>
+      </c>
+      <c r="J43">
+        <v>-4.191779456581102</v>
+      </c>
+      <c r="K43">
+        <v>-0.8310663749237079</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="B44">
+        <v>1.504719183750155</v>
+      </c>
+      <c r="C44">
+        <v>1.177997685410944</v>
+      </c>
+      <c r="D44">
+        <v>2.016096742722298</v>
+      </c>
+      <c r="E44">
+        <v>-0.6636031708389534</v>
+      </c>
+      <c r="F44">
+        <v>0.5718195232239935</v>
+      </c>
+      <c r="G44">
+        <v>2.296123811966439</v>
+      </c>
+      <c r="H44">
+        <v>2.662569004579467</v>
+      </c>
+      <c r="I44">
+        <v>-2.81287843545259</v>
+      </c>
+      <c r="J44">
+        <v>0.5478346462048052</v>
+      </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="B45">
+        <v>-0.326721498339211</v>
+      </c>
+      <c r="C45">
+        <v>0.511377558972143</v>
+      </c>
+      <c r="D45">
+        <v>-2.168322354589108</v>
+      </c>
+      <c r="E45">
+        <v>-0.932899660526161</v>
+      </c>
+      <c r="F45">
+        <v>0.7914046282162839</v>
+      </c>
+      <c r="G45">
+        <v>1.157849820829312</v>
+      </c>
+      <c r="H45">
+        <v>-4.317597619202744</v>
+      </c>
+      <c r="I45">
+        <v>-0.9568845375453494</v>
+      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="B46">
+        <v>0.838099057311354</v>
+      </c>
+      <c r="C46">
+        <v>-1.841600856249897</v>
+      </c>
+      <c r="D46">
+        <v>-0.60617816218695</v>
+      </c>
+      <c r="E46">
+        <v>1.118126126555495</v>
+      </c>
+      <c r="F46">
+        <v>1.484571319168523</v>
+      </c>
+      <c r="G46">
+        <v>-3.990876120863533</v>
+      </c>
+      <c r="H46">
+        <v>-0.6301630392061384</v>
+      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="B47">
+        <v>-2.679699913561251</v>
+      </c>
+      <c r="C47">
+        <v>-1.444277219498304</v>
+      </c>
+      <c r="D47">
+        <v>0.2800270692441409</v>
+      </c>
+      <c r="E47">
+        <v>0.646472261857169</v>
+      </c>
+      <c r="F47">
+        <v>-4.828975178174887</v>
+      </c>
+      <c r="G47">
+        <v>-1.468262096517492</v>
+      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48">
+        <v>1.235422694062947</v>
+      </c>
+      <c r="C48">
+        <v>2.959726982805392</v>
+      </c>
+      <c r="D48">
+        <v>3.32617217541842</v>
+      </c>
+      <c r="E48">
+        <v>-2.149275264613636</v>
+      </c>
+      <c r="F48">
+        <v>1.211437817043759</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49">
+        <v>1.724304288742445</v>
+      </c>
+      <c r="C49">
+        <v>2.090749481355473</v>
+      </c>
+      <c r="D49">
+        <v>-3.384697958676583</v>
+      </c>
+      <c r="E49">
+        <v>-0.02398487701918839</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50">
+        <v>0.3664451926130281</v>
+      </c>
+      <c r="C50">
+        <v>-5.109002247419028</v>
+      </c>
+      <c r="D50">
+        <v>-1.748289165761633</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51">
+        <v>-5.475447440032056</v>
+      </c>
+      <c r="C51">
+        <v>-2.114734358374661</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52">
+        <v>3.360713081657395</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>

--- a/3_Component_Results/EXPORT/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/EXPORT/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
@@ -614,21 +614,6 @@
       <c r="F2">
         <v>11.11468264850727</v>
       </c>
-      <c r="G2">
-        <v>12.73337812664747</v>
-      </c>
-      <c r="H2">
-        <v>3.873035857217758</v>
-      </c>
-      <c r="I2">
-        <v>-0.323063796923293</v>
-      </c>
-      <c r="J2">
-        <v>0.7785769238476101</v>
-      </c>
-      <c r="K2">
-        <v>0.4449614463882061</v>
-      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
@@ -655,15 +640,6 @@
       <c r="H3">
         <v>0.1525565224290664</v>
       </c>
-      <c r="I3">
-        <v>-0.1810589550303376</v>
-      </c>
-      <c r="J3">
-        <v>-5.484610945232049</v>
-      </c>
-      <c r="K3">
-        <v>0.1003315235034132</v>
-      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
@@ -684,21 +660,6 @@
       <c r="F4">
         <v>-2.648701275615025</v>
       </c>
-      <c r="G4">
-        <v>-2.982316753074429</v>
-      </c>
-      <c r="H4">
-        <v>-8.28586874327614</v>
-      </c>
-      <c r="I4">
-        <v>-2.700926274540678</v>
-      </c>
-      <c r="J4">
-        <v>-2.21406856902577</v>
-      </c>
-      <c r="K4">
-        <v>-2.689582674310231</v>
-      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
@@ -725,15 +686,6 @@
       <c r="H5">
         <v>-11.5201684962106</v>
       </c>
-      <c r="I5">
-        <v>-11.99568260149506</v>
-      </c>
-      <c r="J5">
-        <v>-12.43546863974187</v>
-      </c>
-      <c r="K5">
-        <v>-12.21048456176227</v>
-      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
@@ -754,21 +706,6 @@
       <c r="F6">
         <v>1.536273427360158</v>
       </c>
-      <c r="G6">
-        <v>1.060759322075697</v>
-      </c>
-      <c r="H6">
-        <v>0.6209732838288891</v>
-      </c>
-      <c r="I6">
-        <v>0.8459573618084879</v>
-      </c>
-      <c r="J6">
-        <v>4.863701631957853</v>
-      </c>
-      <c r="K6">
-        <v>1.65021882048356</v>
-      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
@@ -795,15 +732,6 @@
       <c r="H7">
         <v>4.095676388646353</v>
       </c>
-      <c r="I7">
-        <v>0.8821935771720608</v>
-      </c>
-      <c r="J7">
-        <v>-0.66738825993788</v>
-      </c>
-      <c r="K7">
-        <v>1.161529403603552</v>
-      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
@@ -824,21 +752,6 @@
       <c r="F8">
         <v>3.814285910112603</v>
       </c>
-      <c r="G8">
-        <v>0.6008030986383099</v>
-      </c>
-      <c r="H8">
-        <v>-0.9487787384716309</v>
-      </c>
-      <c r="I8">
-        <v>0.8801389250698008</v>
-      </c>
-      <c r="J8">
-        <v>4.745972545925937</v>
-      </c>
-      <c r="K8">
-        <v>4.130551327140581</v>
-      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
@@ -865,15 +778,6 @@
       <c r="H9">
         <v>4.734628945695491</v>
       </c>
-      <c r="I9">
-        <v>4.119207726910134</v>
-      </c>
-      <c r="J9">
-        <v>-0.1133646193403157</v>
-      </c>
-      <c r="K9">
-        <v>2.238148234152917</v>
-      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
@@ -894,21 +798,6 @@
       <c r="F10">
         <v>4.9494309059627</v>
       </c>
-      <c r="G10">
-        <v>4.334009687177343</v>
-      </c>
-      <c r="H10">
-        <v>0.1014373409268932</v>
-      </c>
-      <c r="I10">
-        <v>2.452950194420126</v>
-      </c>
-      <c r="J10">
-        <v>0.06702036095755703</v>
-      </c>
-      <c r="K10">
-        <v>2.365724277491765</v>
-      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
@@ -935,15 +824,6 @@
       <c r="H11">
         <v>-0.737241097717515</v>
       </c>
-      <c r="I11">
-        <v>1.561462818816693</v>
-      </c>
-      <c r="J11">
-        <v>0.5724165634771901</v>
-      </c>
-      <c r="K11">
-        <v>-0.220669009800958</v>
-      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
@@ -964,21 +844,6 @@
       <c r="F12">
         <v>-1.016576924149006</v>
       </c>
-      <c r="G12">
-        <v>1.282126992385202</v>
-      </c>
-      <c r="H12">
-        <v>0.2930807370456991</v>
-      </c>
-      <c r="I12">
-        <v>-0.500004836232449</v>
-      </c>
-      <c r="J12">
-        <v>0.449108834012137</v>
-      </c>
-      <c r="K12">
-        <v>0.6431813506550559</v>
-      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
@@ -1005,15 +870,6 @@
       <c r="H13">
         <v>-2.801303568058643</v>
       </c>
-      <c r="I13">
-        <v>-2.607231051415724</v>
-      </c>
-      <c r="J13">
-        <v>-3.599240172634766</v>
-      </c>
-      <c r="K13">
-        <v>-2.020921084902313</v>
-      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
@@ -1034,21 +890,6 @@
       <c r="F14">
         <v>-0.9202440753014258</v>
       </c>
-      <c r="G14">
-        <v>-0.7261715586585069</v>
-      </c>
-      <c r="H14">
-        <v>-1.718180679877549</v>
-      </c>
-      <c r="I14">
-        <v>-0.1398615921450954</v>
-      </c>
-      <c r="J14">
-        <v>0.7197476752050562</v>
-      </c>
-      <c r="K14">
-        <v>-0.8998209001863131</v>
-      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
@@ -1075,15 +916,6 @@
       <c r="H15">
         <v>0.8069735921334171</v>
       </c>
-      <c r="I15">
-        <v>-0.8125949832579522</v>
-      </c>
-      <c r="J15">
-        <v>-1.079748413419921</v>
-      </c>
-      <c r="K15">
-        <v>0.5667632300900323</v>
-      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
@@ -1104,21 +936,6 @@
       <c r="F16">
         <v>2.589105420751068</v>
       </c>
-      <c r="G16">
-        <v>0.9695368453596986</v>
-      </c>
-      <c r="H16">
-        <v>0.70238341519773</v>
-      </c>
-      <c r="I16">
-        <v>2.348895058707683</v>
-      </c>
-      <c r="J16">
-        <v>0.2640009120624711</v>
-      </c>
-      <c r="K16">
-        <v>0.6570799836550241</v>
-      </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
@@ -1145,15 +962,6 @@
       <c r="H17">
         <v>-0.8791852748250337</v>
       </c>
-      <c r="I17">
-        <v>-0.4861062032324808</v>
-      </c>
-      <c r="J17">
-        <v>-0.2407037297604409</v>
-      </c>
-      <c r="K17">
-        <v>-0.8561930079172557</v>
-      </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
@@ -1186,9 +994,6 @@
       <c r="J18">
         <v>-2.519477452736012</v>
       </c>
-      <c r="K18">
-        <v>1.258187789322122</v>
-      </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
@@ -1215,15 +1020,6 @@
       <c r="H19">
         <v>-1.759518144694795</v>
       </c>
-      <c r="I19">
-        <v>2.01814709736334</v>
-      </c>
-      <c r="J19">
-        <v>0.2958944417868139</v>
-      </c>
-      <c r="K19">
-        <v>1.877460723290164</v>
-      </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
@@ -1256,9 +1052,6 @@
       <c r="J20">
         <v>-1.05448875590622</v>
       </c>
-      <c r="K20">
-        <v>-1.40189749005782</v>
-      </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
@@ -1285,15 +1078,6 @@
       <c r="H21">
         <v>0.6373263191464387</v>
       </c>
-      <c r="I21">
-        <v>0.289917584994839</v>
-      </c>
-      <c r="J21">
-        <v>2.636685803198048</v>
-      </c>
-      <c r="K21">
-        <v>0.247965721067231</v>
-      </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
@@ -1326,9 +1110,6 @@
       <c r="J22">
         <v>1.89354051193773</v>
       </c>
-      <c r="K22">
-        <v>4.760004389679614</v>
-      </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
@@ -1358,12 +1139,6 @@
       <c r="I23">
         <v>2.970514990243075</v>
       </c>
-      <c r="J23">
-        <v>5.836978867984959</v>
-      </c>
-      <c r="K23">
-        <v>23.07328272319731</v>
-      </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
@@ -1390,15 +1165,6 @@
       <c r="H24">
         <v>-0.8071502518150595</v>
       </c>
-      <c r="I24">
-        <v>2.059313625926825</v>
-      </c>
-      <c r="J24">
-        <v>19.29561748113917</v>
-      </c>
-      <c r="K24">
-        <v>-19.18321641127324</v>
-      </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
@@ -1466,9 +1232,6 @@
       <c r="J26">
         <v>-5.444557841334467</v>
       </c>
-      <c r="K26">
-        <v>-2.749039957006937</v>
-      </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
@@ -1498,12 +1261,6 @@
       <c r="I27">
         <v>-3.891966575486066</v>
       </c>
-      <c r="J27">
-        <v>-1.196448691158537</v>
-      </c>
-      <c r="K27">
-        <v>0.1128003469303707</v>
-      </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
@@ -1530,15 +1287,6 @@
       <c r="H28">
         <v>-3.544557841334466</v>
       </c>
-      <c r="I28">
-        <v>-0.8490399570069369</v>
-      </c>
-      <c r="J28">
-        <v>0.4602090810819703</v>
-      </c>
-      <c r="K28">
-        <v>1.98156889852946</v>
-      </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
@@ -1606,9 +1354,6 @@
       <c r="J30">
         <v>-3.742220879673297</v>
       </c>
-      <c r="K30">
-        <v>3.165469857548658</v>
-      </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
@@ -1638,12 +1383,6 @@
       <c r="I31">
         <v>-5.017708865859021</v>
       </c>
-      <c r="J31">
-        <v>1.889981871362934</v>
-      </c>
-      <c r="K31">
-        <v>-0.5203221319907101</v>
-      </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
@@ -1670,15 +1409,6 @@
       <c r="H32">
         <v>-7.884172743600905</v>
       </c>
-      <c r="I32">
-        <v>-0.9764820063789501</v>
-      </c>
-      <c r="J32">
-        <v>-3.386786009732595</v>
-      </c>
-      <c r="K32">
-        <v>-5.082042055103904</v>
-      </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
@@ -1746,9 +1476,6 @@
       <c r="J34">
         <v>19.0998054242818</v>
       </c>
-      <c r="K34">
-        <v>17.72090440315328</v>
-      </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
@@ -1778,12 +1505,6 @@
       <c r="I35">
         <v>5.501833228416203</v>
       </c>
-      <c r="J35">
-        <v>4.12293220728769</v>
-      </c>
-      <c r="K35">
-        <v>5.627651391037844</v>
-      </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
@@ -1810,15 +1531,6 @@
       <c r="H36">
         <v>2.806315344088674</v>
       </c>
-      <c r="I36">
-        <v>1.42741432296016</v>
-      </c>
-      <c r="J36">
-        <v>2.932133506710315</v>
-      </c>
-      <c r="K36">
-        <v>2.605412008371104</v>
-      </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
@@ -1886,9 +1598,6 @@
       <c r="J38">
         <v>0.6129022101460611</v>
       </c>
-      <c r="K38">
-        <v>-2.06679770341519</v>
-      </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
@@ -1918,12 +1627,6 @@
       <c r="I39">
         <v>6.378643852276426</v>
       </c>
-      <c r="J39">
-        <v>3.698943938715175</v>
-      </c>
-      <c r="K39">
-        <v>4.934366632778122</v>
-      </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
@@ -1950,15 +1653,6 @@
       <c r="H40">
         <v>-0.529046884945529</v>
       </c>
-      <c r="I40">
-        <v>-3.20874679850678</v>
-      </c>
-      <c r="J40">
-        <v>-1.973324104443833</v>
-      </c>
-      <c r="K40">
-        <v>-0.2490198157013881</v>
-      </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
@@ -2026,9 +1720,6 @@
       <c r="J42">
         <v>4.222985425636594</v>
       </c>
-      <c r="K42">
-        <v>-1.252462014395462</v>
-      </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
@@ -2058,12 +1749,6 @@
       <c r="I43">
         <v>1.283667983450953</v>
       </c>
-      <c r="J43">
-        <v>-4.191779456581102</v>
-      </c>
-      <c r="K43">
-        <v>-0.8310663749237079</v>
-      </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
@@ -2089,12 +1774,6 @@
       </c>
       <c r="H44">
         <v>2.662569004579467</v>
-      </c>
-      <c r="I44">
-        <v>-2.81287843545259</v>
-      </c>
-      <c r="J44">
-        <v>0.5478346462048052</v>
       </c>
     </row>
     <row r="45" spans="1:11">
